--- a/Data_clean/MCAS/Estados_US/Edos_USA_2013/WEST_VIRGINIA_2013.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2013/WEST_VIRGINIA_2013.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Pichucalco</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Juarez</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Coyoacan</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Jocotitlan</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -748,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -761,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Tultitlan</t>
@@ -774,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Zinacantepec</t>
@@ -787,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -818,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Acambaro</t>
@@ -831,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Huanimaro</t>
@@ -844,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -857,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Leon</t>
@@ -870,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -883,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Penjamo</t>
@@ -896,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -909,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>San Francisco Del Rincon</t>
@@ -922,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Santiago Maravatio</t>
@@ -935,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Silao</t>
@@ -948,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -961,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -992,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -1005,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Atoyac De Alvarez</t>
@@ -1018,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Coyuca De Catalan</t>
@@ -1031,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzon</t>
@@ -1044,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -1057,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -1070,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Petatlan</t>
@@ -1083,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>San Luis Acatlan</t>
@@ -1096,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -1109,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tecpan De Galeana</t>
@@ -1122,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Tetipac</t>
@@ -1135,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1166,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -1179,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Tepehuacan De Guerrero</t>
@@ -1192,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1205,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1236,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -1249,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1262,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Jesus Maria</t>
@@ -1275,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Zapotlan El Grande</t>
@@ -1288,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1319,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Maravatio</t>
@@ -1332,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1345,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Panindicuaro</t>
@@ -1358,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -1371,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -1384,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -1397,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Tingambato</t>
@@ -1410,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolas Romero</t>
@@ -1423,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1436,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1449,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1480,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1511,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1542,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1573,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Asuncion Ocotlan</t>
@@ -1586,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Chalcatongo De Hidalgo</t>
@@ -1599,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Cosolapa</t>
@@ -1612,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -1625,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -1638,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -1651,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>San Juan Lalana</t>
@@ -1664,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Santa Maria Colotepec</t>
@@ -1677,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Santa Maria Zacatepec</t>
@@ -1690,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Santiago Camotlan</t>
@@ -1703,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Santiago Llano Grande</t>
@@ -1716,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -1729,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -1742,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Villa De Etla</t>
@@ -1755,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1786,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Hueytamalco</t>
@@ -1799,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1812,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>San Salvador El Verde</t>
@@ -1825,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -1838,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1869,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Queretaro</t>
@@ -1882,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1913,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Tamuin</t>
@@ -1926,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1957,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1988,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -2001,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2032,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -2045,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2076,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -2089,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -2102,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2133,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Ixtenco</t>
@@ -2146,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2177,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -2190,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -2203,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Castillo De Teayo</t>
@@ -2216,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Cordoba</t>
@@ -2229,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Cuitlahuac</t>
@@ -2242,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -2255,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Nanchital De Lazaro Cardenas Del Rio</t>
@@ -2268,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Panuco</t>
@@ -2281,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>San Andres Tuxtla</t>
@@ -2294,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -2307,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2320,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Zozocolco De Hidalgo</t>
@@ -2333,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2364,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Total</t>
